--- a/Device_Groups.xlsx
+++ b/Device_Groups.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A01E88-5EE7-4ED8-BB65-27A9AB03E23D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{75A01E88-5EE7-4ED8-BB65-27A9AB03E23D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{EC0F5DB4-0996-4BC2-8E2C-DB681854EA3F}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="-105" windowWidth="12945" windowHeight="6615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="72">
   <si>
     <t>Linea 1</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>Linea 4 Total</t>
+  </si>
+  <si>
+    <t>Usable</t>
   </si>
 </sst>
 </file>
@@ -376,15 +379,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B7924CA-71B3-43AC-AD6E-F1552CA62B54}" name="DeviceGroupsFEMSA" displayName="DeviceGroupsFEMSA" ref="A1:C57" totalsRowShown="0">
-  <autoFilter ref="A1:C57" xr:uid="{5C7D87C9-CAC4-4BDD-8A96-0FD0A6139AFB}"/>
-  <sortState ref="A2:C57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B7924CA-71B3-43AC-AD6E-F1552CA62B54}" name="DeviceGroupsFEMSA" displayName="DeviceGroupsFEMSA" ref="A1:D57" totalsRowShown="0">
+  <autoFilter ref="A1:D57" xr:uid="{5C7D87C9-CAC4-4BDD-8A96-0FD0A6139AFB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C57">
     <sortCondition ref="A2"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FC6B3B65-35B8-43A9-8A6B-B663D594E596}" name="device_name"/>
     <tableColumn id="2" xr3:uid="{3149BD11-A07E-4B1A-A083-A41F38AE0452}" name="DG1" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{189BE3E7-16FC-44D3-BC2E-B1AA954F55BF}" name="DG2" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{57671EDA-24CF-4F4F-9C69-502FEBB431AB}" name="Usable"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -656,18 +660,18 @@
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -677,8 +681,11 @@
       <c r="C1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>54</v>
       </c>
@@ -688,8 +695,11 @@
       <c r="C2" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -699,8 +709,11 @@
       <c r="C3" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -710,8 +723,11 @@
       <c r="C4" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -721,8 +737,11 @@
       <c r="C5" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -732,8 +751,11 @@
       <c r="C6" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -743,8 +765,11 @@
       <c r="C7" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -754,8 +779,11 @@
       <c r="C8" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -765,8 +793,11 @@
       <c r="C9" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -776,8 +807,11 @@
       <c r="C10" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -787,8 +821,11 @@
       <c r="C11" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -798,8 +835,11 @@
       <c r="C12" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -809,8 +849,11 @@
       <c r="C13" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -820,8 +863,11 @@
       <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -831,8 +877,11 @@
       <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -842,8 +891,11 @@
       <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -853,8 +905,11 @@
       <c r="C17" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>55</v>
       </c>
@@ -864,8 +919,11 @@
       <c r="C18" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -875,8 +933,11 @@
       <c r="C19" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -886,8 +947,11 @@
       <c r="C20" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -897,8 +961,11 @@
       <c r="C21" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -908,8 +975,11 @@
       <c r="C22" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -919,8 +989,11 @@
       <c r="C23" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -930,8 +1003,11 @@
       <c r="C24" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -941,8 +1017,11 @@
       <c r="C25" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -952,8 +1031,11 @@
       <c r="C26" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -963,8 +1045,11 @@
       <c r="C27" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -974,8 +1059,11 @@
       <c r="C28" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -985,8 +1073,11 @@
       <c r="C29" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -996,8 +1087,11 @@
       <c r="C30" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1007,8 +1101,11 @@
       <c r="C31" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1018,8 +1115,11 @@
       <c r="C32" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1029,8 +1129,11 @@
       <c r="C33" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1040,8 +1143,11 @@
       <c r="C34" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -1051,8 +1157,11 @@
       <c r="C35" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1062,8 +1171,11 @@
       <c r="C36" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -1073,8 +1185,11 @@
       <c r="C37" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -1084,8 +1199,11 @@
       <c r="C38" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -1095,8 +1213,11 @@
       <c r="C39" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -1106,8 +1227,11 @@
       <c r="C40" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -1117,8 +1241,11 @@
       <c r="C41" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -1128,8 +1255,11 @@
       <c r="C42" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1139,8 +1269,11 @@
       <c r="C43" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1150,8 +1283,11 @@
       <c r="C44" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -1161,8 +1297,11 @@
       <c r="C45" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>56</v>
       </c>
@@ -1172,8 +1311,11 @@
       <c r="C46" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1183,8 +1325,11 @@
       <c r="C47" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1194,8 +1339,11 @@
       <c r="C48" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1205,8 +1353,11 @@
       <c r="C49" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -1216,8 +1367,11 @@
       <c r="C50" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -1227,8 +1381,11 @@
       <c r="C51" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -1238,8 +1395,11 @@
       <c r="C52" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>31</v>
       </c>
@@ -1249,8 +1409,11 @@
       <c r="C53" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>32</v>
       </c>
@@ -1260,8 +1423,11 @@
       <c r="C54" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>33</v>
       </c>
@@ -1271,8 +1437,11 @@
       <c r="C55" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -1282,8 +1451,11 @@
       <c r="C56" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
@@ -1293,11 +1465,14 @@
       <c r="C57" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" s="3"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" s="3"/>
     </row>
   </sheetData>

--- a/Device_Groups.xlsx
+++ b/Device_Groups.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{75A01E88-5EE7-4ED8-BB65-27A9AB03E23D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{EC0F5DB4-0996-4BC2-8E2C-DB681854EA3F}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{75A01E88-5EE7-4ED8-BB65-27A9AB03E23D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{6793271D-2BF3-4688-9DAC-10EE5B09807F}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,12 +210,6 @@
     <t>Otros</t>
   </si>
   <si>
-    <t>Compresor de Amoniaco Reciprocante 1 100 HP</t>
-  </si>
-  <si>
-    <t>Compresor de Amoniaco Reciprocante 2 100 HP</t>
-  </si>
-  <si>
     <t>device_name</t>
   </si>
   <si>
@@ -241,6 +235,12 @@
   </si>
   <si>
     <t>Usable</t>
+  </si>
+  <si>
+    <t>Compresor de Amoniaco Reciprocante 1 200 HP</t>
+  </si>
+  <si>
+    <t>Compresor de Amoniaco Reciprocante 2 200 HP</t>
   </si>
 </sst>
 </file>
@@ -320,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -329,6 +329,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,7 +662,7 @@
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C14" sqref="A14:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,16 +675,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -690,7 +692,7 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>60</v>
@@ -700,13 +702,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D3">
@@ -714,13 +716,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D4">
@@ -728,13 +730,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D5">
@@ -742,13 +744,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D6">
@@ -756,156 +758,156 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="A17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="8">
         <v>1</v>
       </c>
     </row>
@@ -914,7 +916,7 @@
         <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>60</v>
@@ -1012,10 +1014,10 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1306,10 +1308,10 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1320,10 +1322,10 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1334,10 +1336,10 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1348,10 +1350,10 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1362,10 +1364,10 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1376,10 +1378,10 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1390,10 +1392,10 @@
         <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1404,10 +1406,10 @@
         <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1418,10 +1420,10 @@
         <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1432,10 +1434,10 @@
         <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1446,7 +1448,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>60</v>
@@ -1460,7 +1462,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>60</v>
